--- a/project/excel/confident_schema.xlsx
+++ b/project/excel/confident_schema.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="37" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="69" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AcademicField" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,6 +45,38 @@
     <sheet name="AcademicField1" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="Attendee1" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="City1" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="CommitteeChair1" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="CommitteeMember1" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="ConfIDentRecords1" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="ContactPerson1" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Context1" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Contributor1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Country1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="DblpId1" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Deadline1" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="DigitalObjectId1" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Event1" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="EventFormatSpecification1" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="EventSeries1" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="ExternalIdentifier1" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="GndId1" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="KeynoteSpeaker1" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Location1" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Metric1" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Moderator1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="NamedThing1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="Organizer1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Presenter1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Publication1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Region1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="Reviewer1" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="SchemaBasedThing1" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="Sponsor1" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="TibkatId1" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="Venue1" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="WikiCfpEventId1" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="WikiCfpSeriesId1" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet name="WikidataId1" sheetId="70" state="visible" r:id="rId70"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,7 +616,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"submission deadline,notification deadline,abstract deadline,camera-ready deadline,demo deadline,paper deadline,poster deadline,tutorial deadline,workshop deadline,other"</formula1>
+    </dataValidation>
     <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"submission deadline,notification deadline,abstract deadline,camera-ready deadline,demo deadline,paper deadline,poster deadline,tutorial deadline,workshop deadline,other"</formula1>
     </dataValidation>
@@ -831,7 +866,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="6">
+    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"as scheduled,postponed,canceled,to be confirmed"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Colloquium,Conference,Congress,Session,Poster Session,Talk,Keynote Speech,Event Track,Forum,Hackathon,Seminar,Symposium,Tutorial,Workshop,other"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AI2:AI1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"on site,online,hybrid"</formula1>
+    </dataValidation>
     <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"as scheduled,postponed,canceled,to be confirmed"</formula1>
     </dataValidation>
@@ -1285,7 +1329,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"submitted papers,accepted papers,submitted short papers,accepted short papers,submitted abstracts,accepted abstracts,number of attendees,number of tracks,has childcare options,frequency,is accessible,CORE rank,review process"</formula1>
+    </dataValidation>
     <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"submitted papers,accepted papers,submitted short papers,accepted short papers,submitted abstracts,accepted abstracts,number of attendees,number of tracks,has childcare options,frequency,is accessible,CORE rank,review process"</formula1>
     </dataValidation>
@@ -1992,6 +2039,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organizer__contact</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2038,6 +2131,566 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organizer__contact</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>confIDentRecords__events</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>confIDentRecords__series</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organizer__contact</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>contactPerson__email</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>contactPerson__telephone</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>context__text</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>context__license_str</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>context__license_url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DblpId_schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DblpId_schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Deadline_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>deadline__deadline_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>deadline__deadline_other</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DigitalObjectId_schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DigitalObjectId_schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Event_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Event_official_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Event_organized_by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>event_status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Event_has_acronym</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Event_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>at_location</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>in_series</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>subevent_of</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>superevent_of</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has_deadline</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Event_academic_field</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Event_landing_page</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Event_has_publication</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Event_sponsored_by</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Event_website</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Event_has_doi</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Event_umbrella_of</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Event_has_umbrella</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Event_colocated_with</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Event_joint_venture_with</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Event_alternative_name</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Event_former_name</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Event_translated_name</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Event_context_info</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Event_has_metric</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Event_has_topic</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Event_external_id</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Event_wikidata_id</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Event_dpbl_id</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Event_gnd_id</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>ordinal</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>event_mode</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Event_tibkat_id</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Event_wikicfp_event_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2084,6 +2737,531 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>eventFormatSpecification__other_format</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>EventSeries_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EventSeries_official_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>EventSeries_organized_by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>EventSeries_has_acronym</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EventSeries_academic_field</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EventSeries_landing_page</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>EventSeries_has_publication</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>EventSeries_sponsored_by</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>EventSeries_website</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>EventSeries_has_doi</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>EventSeries_umbrella_of</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>EventSeries_has_umbrella</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>EventSeries_colocated_with</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>EventSeries_joint_venture_with</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>series_of</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EventSeries_alternative_name</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>EventSeries_former_name</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>EventSeries_translated_name</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>EventSeries_context_info</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>EventSeries_has_metric</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>EventSeries_has_topic</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>EventSeries_external_id</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>EventSeries_wikidata_id</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>EventSeries_dpbl_id</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>EventSeries_gnd_id</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>EventSeries_wikicfp_series_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>GndId_schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>GndId_schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>location__has_city</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>location__has_country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>location__has_region</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>location__has_venue</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>location__lattitude</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>location__longitude</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>location__meeting_url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Metric_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>metric__int_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>metric__str_value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>metric__rate_value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>metric__truth_value</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>metric__metric_year</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>metric__description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>organizer__contact</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2115,6 +3293,396 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_doi</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Contributor_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Contributor_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TibkatId_schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TibkatId_schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>venue__street</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>venue__zip_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>WikiCfpEventId_schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>WikiCfpEventId_schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>WikiCfpSeriesId_schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>WikiCfpSeriesId_schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2171,6 +3739,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExternalIdentifier_schema_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>WikidataId_schema_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>WikidataId_schema_base_uri</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2244,7 +3848,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"organization,person"</formula1>
+    </dataValidation>
     <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"organization,person"</formula1>
     </dataValidation>

--- a/project/excel/confident_schema.xlsx
+++ b/project/excel/confident_schema.xlsx
@@ -1,82 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="69" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AcademicField" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Attendee" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="City" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CommitteeChair" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CommitteeMember" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ConfIDentRecords" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ContactPerson" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Context" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Contributor" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Country" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="DblpId" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Deadline" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="DigitalObjectId" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Event" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="EventFormatSpecification" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="EventSeries" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="ExternalIdentifier" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GndId" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="KeynoteSpeaker" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Location" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Metric" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Moderator" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="NamedThing" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Organizer" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Presenter" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Publication" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Region" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Reviewer" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="SchemaBasedThing" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Sponsor" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="TibkatId" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Venue" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="WikiCfpEventId" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="WikiCfpSeriesId" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="WikidataId" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="AcademicField1" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Attendee1" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="City1" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="CommitteeChair1" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="CommitteeMember1" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="ConfIDentRecords1" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="ContactPerson1" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Context1" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Contributor1" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Country1" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="DblpId1" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Deadline1" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="DigitalObjectId1" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Event1" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="EventFormatSpecification1" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="EventSeries1" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="ExternalIdentifier1" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="GndId1" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="KeynoteSpeaker1" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Location1" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="Metric1" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="Moderator1" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="NamedThing1" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="Organizer1" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="Presenter1" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="Publication1" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="Region1" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="Reviewer1" sheetId="63" state="visible" r:id="rId63"/>
-    <sheet name="SchemaBasedThing1" sheetId="64" state="visible" r:id="rId64"/>
-    <sheet name="Sponsor1" sheetId="65" state="visible" r:id="rId65"/>
-    <sheet name="TibkatId1" sheetId="66" state="visible" r:id="rId66"/>
-    <sheet name="Venue1" sheetId="67" state="visible" r:id="rId67"/>
-    <sheet name="WikiCfpEventId1" sheetId="68" state="visible" r:id="rId68"/>
-    <sheet name="WikiCfpSeriesId1" sheetId="69" state="visible" r:id="rId69"/>
-    <sheet name="WikidataId1" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcademicField" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Attendee" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommitteeChair" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommitteeMember" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfIDentRecords" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ContactPerson" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Context" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contributor" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DblpId" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deadline" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DigitalObjectId" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventFormatSpecification" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventSeries" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalIdentifier" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GndId" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeynoteSpeaker" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metric" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Moderator" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizer" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Presenter" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Publication" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reviewer" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SchemaBasedThing" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sponsor" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TibkatId" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Venue" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WikiCfpEventId" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WikiCfpSeriesId" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WikidataId" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcademicField1" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Attendee1" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="City1" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommitteeChair1" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommitteeMember1" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfIDentRecords1" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ContactPerson1" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Context1" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contributor1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Country1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DblpId1" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deadline1" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DigitalObjectId1" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Event1" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventFormatSpecification1" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventSeries1" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExternalIdentifier1" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GndId1" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KeynoteSpeaker1" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location1" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metric1" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Moderator1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizer1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Presenter1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Publication1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Region1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reviewer1" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SchemaBasedThing1" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sponsor1" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TibkatId1" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Venue1" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WikiCfpEventId1" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WikiCfpSeriesId1" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WikidataId1" sheetId="70" state="visible" r:id="rId70"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
